--- a/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-desired-0.1/avg_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="952">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="952">
   <si>
     <t>anchor score</t>
   </si>
@@ -328,688 +328,688 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>struggle</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>chaos</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>responsible</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>adults</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>developed</t>
+  </si>
+  <si>
+    <t>solutions</t>
+  </si>
+  <si>
+    <t>rally</t>
+  </si>
+  <si>
+    <t>greater</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>launched</t>
+  </si>
+  <si>
+    <t>adapt</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>victim</t>
+  </si>
+  <si>
+    <t>sense</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>struggling</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>podcast</t>
+  </si>
+  <si>
+    <t>ads</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>deadly</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>hunger</t>
+  </si>
+  <si>
+    <t>critical</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>guidance</t>
+  </si>
+  <si>
+    <t>kits</t>
+  </si>
+  <si>
+    <t>app</t>
+  </si>
+  <si>
+    <t>holiday</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>mis</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>tuesday</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>mr</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>deaths</t>
+  </si>
+  <si>
+    <t>surprise</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>avoiding</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>agriculture</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>donations</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>card</t>
+  </si>
+  <si>
+    <t>crash</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>offering</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>inflated</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>farm</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>insights</t>
+  </si>
+  <si>
+    <t>insurance</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>looks</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sentiment</t>
+  </si>
+  <si>
+    <t>epidemic</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
+    <t>res</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>anxiety</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>worried</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>india</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>honest</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>bonus</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>beauty</t>
+  </si>
+  <si>
+    <t>appreciated</t>
+  </si>
+  <si>
+    <t>bless</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>winning</t>
+  </si>
+  <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>puzzle</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>grateful</t>
+  </si>
+  <si>
+    <t>initiative</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>wise</t>
+  </si>
+  <si>
+    <t>surely</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>instant</t>
+  </si>
+  <si>
+    <t>valuable</t>
+  </si>
+  <si>
+    <t>helps</t>
+  </si>
+  <si>
+    <t>partners</t>
+  </si>
+  <si>
+    <t>hilarious</t>
+  </si>
+  <si>
+    <t>mood</t>
+  </si>
+  <si>
+    <t>respect</t>
+  </si>
+  <si>
+    <t>focused</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>innovation</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>affordable</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>favorite</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>encouraging</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>encourage</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>humor</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>struggle</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>chaos</t>
-  </si>
-  <si>
-    <t>pc</t>
-  </si>
-  <si>
-    <t>responsible</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
-    <t>adults</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>developed</t>
-  </si>
-  <si>
-    <t>solutions</t>
-  </si>
-  <si>
-    <t>rally</t>
-  </si>
-  <si>
-    <t>greater</t>
-  </si>
-  <si>
-    <t>pretty</t>
-  </si>
-  <si>
-    <t>launched</t>
-  </si>
-  <si>
-    <t>adapt</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>source</t>
-  </si>
-  <si>
-    <t>victim</t>
-  </si>
-  <si>
-    <t>sense</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>struggling</t>
-  </si>
-  <si>
-    <t>disease</t>
-  </si>
-  <si>
-    <t>evil</t>
-  </si>
-  <si>
-    <t>podcast</t>
-  </si>
-  <si>
-    <t>ads</t>
-  </si>
-  <si>
-    <t>released</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>deadly</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>hunger</t>
-  </si>
-  <si>
-    <t>critical</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>guidance</t>
-  </si>
-  <si>
-    <t>kits</t>
-  </si>
-  <si>
-    <t>app</t>
-  </si>
-  <si>
-    <t>holiday</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>shame</t>
+    <t>useful</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>truly</t>
+  </si>
+  <si>
+    <t>assure</t>
+  </si>
+  <si>
+    <t>luxury</t>
+  </si>
+  <si>
+    <t>youtube</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t>likes</t>
+  </si>
+  <si>
+    <t>proud</t>
+  </si>
+  <si>
+    <t>overall</t>
+  </si>
+  <si>
+    <t>offer</t>
+  </si>
+  <si>
+    <t>paisley</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>appreciation</t>
+  </si>
+  <si>
+    <t>thankful</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>technology</t>
   </si>
   <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>air</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>mis</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>tuesday</t>
-  </si>
-  <si>
-    <t>note</t>
-  </si>
-  <si>
-    <t>delivered</t>
-  </si>
-  <si>
-    <t>mr</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>options</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>deaths</t>
-  </si>
-  <si>
-    <t>surprise</t>
-  </si>
-  <si>
-    <t>entire</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>avoiding</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>agriculture</t>
-  </si>
-  <si>
-    <t>mother</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>donations</t>
-  </si>
-  <si>
-    <t>details</t>
-  </si>
-  <si>
-    <t>g</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>crash</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>offering</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>listen</t>
-  </si>
-  <si>
-    <t>inflated</t>
-  </si>
-  <si>
-    <t>experience</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>worry</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>insights</t>
-  </si>
-  <si>
-    <t>insurance</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>looks</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>sentiment</t>
-  </si>
-  <si>
-    <t>epidemic</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>fear</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>bit</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>website</t>
-  </si>
-  <si>
-    <t>res</t>
-  </si>
-  <si>
-    <t>recession</t>
-  </si>
-  <si>
-    <t>anxiety</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>worried</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>outside</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>watch</t>
-  </si>
-  <si>
-    <t>india</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>honest</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>bonus</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>birthday</t>
-  </si>
-  <si>
-    <t>beauty</t>
-  </si>
-  <si>
-    <t>appreciated</t>
-  </si>
-  <si>
-    <t>bless</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>winning</t>
-  </si>
-  <si>
-    <t>fantastic</t>
-  </si>
-  <si>
-    <t>smile</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>puzzle</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>grateful</t>
-  </si>
-  <si>
-    <t>initiative</t>
-  </si>
-  <si>
-    <t>definitely</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>wise</t>
-  </si>
-  <si>
-    <t>surely</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>popular</t>
-  </si>
-  <si>
-    <t>instant</t>
-  </si>
-  <si>
-    <t>valuable</t>
-  </si>
-  <si>
-    <t>helps</t>
-  </si>
-  <si>
-    <t>partners</t>
-  </si>
-  <si>
-    <t>hilarious</t>
-  </si>
-  <si>
-    <t>mood</t>
-  </si>
-  <si>
-    <t>respect</t>
-  </si>
-  <si>
-    <t>focused</t>
-  </si>
-  <si>
-    <t>garden</t>
-  </si>
-  <si>
-    <t>innovation</t>
-  </si>
-  <si>
-    <t>cool</t>
-  </si>
-  <si>
-    <t>dear</t>
-  </si>
-  <si>
-    <t>affordable</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>encouraging</t>
-  </si>
-  <si>
-    <t>interest</t>
-  </si>
-  <si>
-    <t>opportunity</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>encourage</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>humor</t>
-  </si>
-  <si>
-    <t>useful</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>truly</t>
-  </si>
-  <si>
-    <t>assure</t>
-  </si>
-  <si>
-    <t>luxury</t>
-  </si>
-  <si>
-    <t>youtube</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hello</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
-    <t>proud</t>
-  </si>
-  <si>
-    <t>overall</t>
-  </si>
-  <si>
-    <t>offer</t>
-  </si>
-  <si>
-    <t>paisley</t>
-  </si>
-  <si>
-    <t>smart</t>
-  </si>
-  <si>
-    <t>appreciation</t>
-  </si>
-  <si>
-    <t>thankful</t>
-  </si>
-  <si>
-    <t>agree</t>
-  </si>
-  <si>
-    <t>technology</t>
   </si>
   <si>
     <t>effective</t>
@@ -3235,10 +3235,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -3517,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -3617,7 +3617,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -3767,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -3817,7 +3817,7 @@
         <v>1</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -3917,7 +3917,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -4017,7 +4017,7 @@
         <v>5</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -4167,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -4417,7 +4417,7 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K25">
         <v>0.9361702127659575</v>
@@ -4467,7 +4467,7 @@
         <v>95</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K26">
         <v>0.9333333333333333</v>
@@ -4567,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K28">
         <v>0.9230769230769231</v>
@@ -4617,7 +4617,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K29">
         <v>0.9166666666666666</v>
@@ -4867,7 +4867,7 @@
         <v>1</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K34">
         <v>0.9090909090909091</v>
@@ -4917,7 +4917,7 @@
         <v>1</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K35">
         <v>0.9</v>
@@ -5067,7 +5067,7 @@
         <v>1</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K38">
         <v>0.889763779527559</v>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K39">
         <v>0.8888888888888888</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K40">
         <v>0.8888888888888888</v>
@@ -5317,7 +5317,7 @@
         <v>1</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K43">
         <v>0.875</v>
@@ -5367,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K44">
         <v>0.875</v>
@@ -5467,7 +5467,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K46">
         <v>0.8666666666666667</v>
@@ -5517,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K47">
         <v>0.8571428571428571</v>
@@ -5567,7 +5567,7 @@
         <v>4</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K48">
         <v>0.8571428571428571</v>
@@ -5617,7 +5617,7 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K49">
         <v>0.8571428571428571</v>
@@ -5717,7 +5717,7 @@
         <v>4</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K51">
         <v>0.85</v>
@@ -5817,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K53">
         <v>0.8461538461538461</v>
@@ -5917,7 +5917,7 @@
         <v>4</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K55">
         <v>0.8421052631578947</v>
@@ -6017,7 +6017,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K57">
         <v>0.8357142857142857</v>
@@ -6067,7 +6067,7 @@
         <v>2</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K58">
         <v>0.8333333333333334</v>
@@ -6167,7 +6167,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K60">
         <v>0.8333333333333334</v>
@@ -6217,7 +6217,7 @@
         <v>4</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K61">
         <v>0.8333333333333334</v>
@@ -6267,7 +6267,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K62">
         <v>0.8333333333333334</v>
@@ -6317,7 +6317,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K63">
         <v>0.8333333333333334</v>
@@ -6367,7 +6367,7 @@
         <v>2</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K64">
         <v>0.8333333333333334</v>
@@ -6417,7 +6417,7 @@
         <v>9</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K65">
         <v>0.8333333333333334</v>
@@ -6467,7 +6467,7 @@
         <v>5</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K66">
         <v>0.8333333333333334</v>
@@ -6567,7 +6567,7 @@
         <v>11</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K68">
         <v>0.8214285714285714</v>
@@ -6617,7 +6617,7 @@
         <v>20</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K69">
         <v>0.8181818181818182</v>
@@ -6667,7 +6667,7 @@
         <v>9</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K70">
         <v>0.8181818181818182</v>
@@ -6717,7 +6717,7 @@
         <v>9</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K71">
         <v>0.8181818181818182</v>
@@ -6767,7 +6767,7 @@
         <v>3</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K72">
         <v>0.8141025641025641</v>
@@ -6817,7 +6817,7 @@
         <v>3</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K73">
         <v>0.8095238095238095</v>
@@ -6867,7 +6867,7 @@
         <v>3</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K74">
         <v>0.8</v>
@@ -7117,7 +7117,7 @@
         <v>3</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K79">
         <v>0.7804878048780488</v>
@@ -7267,28 +7267,28 @@
         <v>10</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>104</v>
+        <v>305</v>
       </c>
       <c r="K82">
-        <v>0.7665198237885462</v>
+        <v>0.75</v>
       </c>
       <c r="L82">
-        <v>174</v>
+        <v>9</v>
       </c>
       <c r="M82">
-        <v>186</v>
+        <v>9</v>
       </c>
       <c r="N82">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>53</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -7317,16 +7317,16 @@
         <v>7</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K83">
         <v>0.75</v>
       </c>
       <c r="L83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="M83">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -7338,7 +7338,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -7367,16 +7367,16 @@
         <v>60</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K84">
         <v>0.75</v>
       </c>
       <c r="L84">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="M84">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -7388,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -7417,28 +7417,28 @@
         <v>4</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="K85">
         <v>0.75</v>
       </c>
       <c r="L85">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M85">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q85">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -7467,7 +7467,7 @@
         <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="K86">
         <v>0.75</v>
@@ -7476,16 +7476,16 @@
         <v>6</v>
       </c>
       <c r="M86">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N86">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
         <v>2</v>
@@ -7517,7 +7517,7 @@
         <v>4</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K87">
         <v>0.75</v>
@@ -7567,28 +7567,28 @@
         <v>4</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>311</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <v>0.75</v>
+        <v>0.7424242424242424</v>
       </c>
       <c r="L88">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="M88">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:17">
@@ -7617,28 +7617,28 @@
         <v>12</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>100</v>
+        <v>310</v>
       </c>
       <c r="K89">
-        <v>0.7424242424242424</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L89">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="M89">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="N89">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q89">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:17">
@@ -7667,7 +7667,7 @@
         <v>4</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>312</v>
+        <v>60</v>
       </c>
       <c r="K90">
         <v>0.7333333333333333</v>
@@ -7676,16 +7676,16 @@
         <v>11</v>
       </c>
       <c r="M90">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>1</v>
+        <v>0.85</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="P90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -7717,28 +7717,28 @@
         <v>8</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>60</v>
+        <v>311</v>
       </c>
       <c r="K91">
-        <v>0.7333333333333333</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L91">
-        <v>11</v>
+        <v>174</v>
       </c>
       <c r="M91">
-        <v>13</v>
+        <v>174</v>
       </c>
       <c r="N91">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -7767,7 +7767,7 @@
         <v>4</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K92">
         <v>0.7272727272727273</v>
@@ -7967,7 +7967,7 @@
         <v>17</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K96">
         <v>0.7254901960784313</v>
@@ -8017,7 +8017,7 @@
         <v>13</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K97">
         <v>0.7222222222222222</v>
@@ -8067,7 +8067,7 @@
         <v>13</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="K98">
         <v>0.7142857142857143</v>
@@ -8096,28 +8096,28 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.1846153846153846</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="C99">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D99">
-        <v>186</v>
+        <v>2</v>
       </c>
       <c r="E99">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K99">
         <v>0.7142857142857143</v>
@@ -8152,22 +8152,22 @@
         <v>2</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F100">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100">
         <v>9</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K100">
         <v>0.7142857142857143</v>
@@ -8196,25 +8196,25 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="C101">
         <v>2</v>
       </c>
       <c r="D101">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="E101">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J101" s="1" t="s">
         <v>61</v>
@@ -8249,10 +8249,10 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E102">
         <v>0</v>
@@ -8264,10 +8264,10 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K102">
         <v>0.7142857142857143</v>
@@ -8352,22 +8352,22 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H104">
         <v>5</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K104">
         <v>0.7111111111111111</v>
@@ -8402,16 +8402,16 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F105">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H105">
         <v>5</v>
@@ -8449,25 +8449,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F106">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H106">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K106">
         <v>0.6923076923076923</v>
@@ -8499,25 +8499,25 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="C107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D107">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E107">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="F107">
-        <v>0.12</v>
+        <v>0.5</v>
       </c>
       <c r="G107" t="b">
         <v>1</v>
       </c>
       <c r="H107">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K107">
         <v>0.6857142857142857</v>
@@ -8552,13 +8552,13 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F108">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="G108" t="b">
         <v>1</v>
@@ -8567,7 +8567,7 @@
         <v>5</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K108">
         <v>0.6818181818181818</v>
@@ -8602,13 +8602,13 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E109">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F109">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G109" t="b">
         <v>1</v>
@@ -8617,7 +8617,7 @@
         <v>5</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K109">
         <v>0.6666666666666666</v>
@@ -8667,7 +8667,7 @@
         <v>5</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K110">
         <v>0.6666666666666666</v>
@@ -8702,13 +8702,13 @@
         <v>1</v>
       </c>
       <c r="D111">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E111">
-        <v>0.67</v>
+        <v>0.86</v>
       </c>
       <c r="F111">
-        <v>0.33</v>
+        <v>0.14</v>
       </c>
       <c r="G111" t="b">
         <v>1</v>
@@ -8717,7 +8717,7 @@
         <v>5</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K111">
         <v>0.6666666666666666</v>
@@ -8752,13 +8752,13 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E112">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="F112">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="G112" t="b">
         <v>1</v>
@@ -8802,13 +8802,13 @@
         <v>1</v>
       </c>
       <c r="D113">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F113">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G113" t="b">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>5</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="K113">
         <v>0.6666666666666666</v>
@@ -8852,13 +8852,13 @@
         <v>1</v>
       </c>
       <c r="D114">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E114">
-        <v>0.67</v>
+        <v>0.93</v>
       </c>
       <c r="F114">
-        <v>0.33</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G114" t="b">
         <v>1</v>
@@ -8867,7 +8867,7 @@
         <v>5</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K114">
         <v>0.6605263157894737</v>
@@ -8896,28 +8896,28 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C115">
         <v>1</v>
       </c>
       <c r="D115">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E115">
-        <v>0.93</v>
+        <v>0.5</v>
       </c>
       <c r="F115">
-        <v>0.06999999999999995</v>
+        <v>0.5</v>
       </c>
       <c r="G115" t="b">
         <v>1</v>
       </c>
       <c r="H115">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K115">
         <v>0.65625</v>
@@ -8949,25 +8949,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D116">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="E116">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="F116">
-        <v>0.5</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G116" t="b">
         <v>1</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K116">
         <v>0.6521739130434783</v>
@@ -8999,25 +8999,25 @@
         <v>0.1428571428571428</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D117">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="E117">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F117">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G117" t="b">
         <v>1</v>
       </c>
       <c r="H117">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K117">
         <v>0.6433566433566433</v>
@@ -9052,22 +9052,22 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E118">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H118">
         <v>6</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K118">
         <v>0.6428571428571429</v>
@@ -9096,28 +9096,28 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.1428571428571428</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="C119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F119">
-        <v>1</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H119">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K119">
         <v>0.6428571428571429</v>
@@ -9149,22 +9149,22 @@
         <v>0.1333333333333333</v>
       </c>
       <c r="C120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D120">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="E120">
-        <v>0.33</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F120">
-        <v>0.6699999999999999</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G120" t="b">
         <v>1</v>
       </c>
       <c r="H120">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>71</v>
@@ -9202,43 +9202,43 @@
         <v>4</v>
       </c>
       <c r="D121">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="E121">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G121" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H121">
         <v>26</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="K121">
-        <v>0.6411042944785276</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L121">
-        <v>209</v>
+        <v>7</v>
       </c>
       <c r="M121">
-        <v>223</v>
+        <v>8</v>
       </c>
       <c r="N121">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="O121">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="P121" t="b">
         <v>1</v>
       </c>
       <c r="Q121">
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="122" spans="1:17">
@@ -9246,13 +9246,13 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.1333333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="C122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D122">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -9264,19 +9264,19 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="K122">
         <v>0.6363636363636364</v>
       </c>
       <c r="L122">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M122">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N122">
         <v>0.88</v>
@@ -9288,7 +9288,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:17">
@@ -9317,28 +9317,28 @@
         <v>7</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="K123">
-        <v>0.6363636363636364</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L123">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="M123">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N123">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O123">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P123" t="b">
         <v>1</v>
       </c>
       <c r="Q123">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" spans="1:17">
@@ -9367,28 +9367,28 @@
         <v>7</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="K124">
-        <v>0.6296296296296297</v>
+        <v>0.625</v>
       </c>
       <c r="L124">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="M124">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O124">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P124" t="b">
         <v>1</v>
       </c>
       <c r="Q124">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -9402,22 +9402,22 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F125">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>7</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>81</v>
+        <v>327</v>
       </c>
       <c r="K125">
         <v>0.625</v>
@@ -9426,16 +9426,16 @@
         <v>5</v>
       </c>
       <c r="M125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N125">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="O125">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -9452,13 +9452,13 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F126">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G126" t="b">
         <v>1</v>
@@ -9502,13 +9502,13 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E127">
-        <v>0.67</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F127">
-        <v>0.33</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G127" t="b">
         <v>1</v>
@@ -9523,10 +9523,10 @@
         <v>0.625</v>
       </c>
       <c r="L127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M127">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="N127">
         <v>1</v>
@@ -9538,7 +9538,7 @@
         <v>0</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:17">
@@ -9552,16 +9552,16 @@
         <v>1</v>
       </c>
       <c r="D128">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E128">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F128">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128">
         <v>7</v>
@@ -9570,13 +9570,13 @@
         <v>330</v>
       </c>
       <c r="K128">
-        <v>0.625</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N128">
         <v>1</v>
@@ -9588,7 +9588,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:17">
@@ -9596,37 +9596,37 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.125</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="C129">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D129">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H129">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="J129" s="1" t="s">
         <v>331</v>
       </c>
       <c r="K129">
-        <v>0.6153846153846154</v>
+        <v>0.6147058823529412</v>
       </c>
       <c r="L129">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>209</v>
       </c>
       <c r="N129">
         <v>1</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="Q129">
-        <v>5</v>
+        <v>131</v>
       </c>
     </row>
     <row r="130" spans="1:17">
@@ -9646,25 +9646,25 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.1212121212121212</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="C130">
         <v>4</v>
       </c>
       <c r="D130">
-        <v>131</v>
+        <v>4</v>
       </c>
       <c r="E130">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>0.03000000000000003</v>
+        <v>1</v>
       </c>
       <c r="G130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H130">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J130" s="1" t="s">
         <v>91</v>
@@ -9699,10 +9699,10 @@
         <v>0.1176470588235294</v>
       </c>
       <c r="C131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0</v>
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J131" s="1" t="s">
         <v>59</v>
@@ -9746,13 +9746,13 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.1176470588235294</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>0</v>
@@ -9764,7 +9764,7 @@
         <v>0</v>
       </c>
       <c r="H132">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J132" s="1" t="s">
         <v>55</v>
@@ -9846,25 +9846,25 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.1153846153846154</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C134">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D134">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H134">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="J134" s="1" t="s">
         <v>332</v>
@@ -9902,13 +9902,13 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E135">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="F135">
-        <v>0.14</v>
+        <v>0.17</v>
       </c>
       <c r="G135" t="b">
         <v>1</v>
@@ -9952,13 +9952,13 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E136">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
       <c r="F136">
-        <v>0.17</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G136" t="b">
         <v>1</v>
@@ -10002,13 +10002,13 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E137">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="F137">
-        <v>0.09999999999999998</v>
+        <v>0.25</v>
       </c>
       <c r="G137" t="b">
         <v>1</v>
@@ -10017,7 +10017,7 @@
         <v>8</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K137">
         <v>0.5833333333333334</v>
@@ -10046,25 +10046,25 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.1111111111111111</v>
+        <v>0.1085271317829457</v>
       </c>
       <c r="C138">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="D138">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="E138">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H138">
-        <v>8</v>
+        <v>460</v>
       </c>
       <c r="J138" s="1" t="s">
         <v>334</v>
@@ -10096,13 +10096,13 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.1085271317829457</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C139">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="D139">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>460</v>
+        <v>33</v>
       </c>
       <c r="J139" s="1" t="s">
         <v>96</v>
@@ -10146,28 +10146,28 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.1081081081081081</v>
+        <v>0.1</v>
       </c>
       <c r="C140">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D140">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F140">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H140">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K140">
         <v>0.5747126436781609</v>
@@ -10196,25 +10196,25 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.1068702290076336</v>
+        <v>0.1</v>
       </c>
       <c r="C141">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="D141">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="E141">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="F141">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="G141" t="b">
         <v>1</v>
       </c>
       <c r="H141">
-        <v>117</v>
+        <v>9</v>
       </c>
       <c r="J141" s="1" t="s">
         <v>83</v>
@@ -10252,13 +10252,13 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="E142">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F142">
-        <v>0.02000000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="G142" t="b">
         <v>1</v>
@@ -10296,25 +10296,25 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.1</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="C143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D143">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E143">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="F143">
-        <v>0.17</v>
+        <v>0.4</v>
       </c>
       <c r="G143" t="b">
         <v>1</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J143" s="1" t="s">
         <v>336</v>
@@ -10346,25 +10346,25 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.1</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C144">
         <v>1</v>
       </c>
       <c r="D144">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E144">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F144">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H144">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J144" s="1" t="s">
         <v>337</v>
@@ -10396,25 +10396,25 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.09523809523809523</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="C145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E145">
-        <v>0.6</v>
+        <v>0.83</v>
       </c>
       <c r="F145">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="G145" t="b">
         <v>1</v>
       </c>
       <c r="H145">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J145" s="1" t="s">
         <v>338</v>
@@ -10452,16 +10452,16 @@
         <v>1</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F146">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H146">
         <v>10</v>
@@ -10502,13 +10502,13 @@
         <v>1</v>
       </c>
       <c r="D147">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E147">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F147">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G147" t="b">
         <v>1</v>
@@ -10517,7 +10517,7 @@
         <v>10</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K147">
         <v>0.5666666666666667</v>
@@ -10602,13 +10602,13 @@
         <v>1</v>
       </c>
       <c r="D149">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E149">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F149">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G149" t="b">
         <v>1</v>
@@ -10652,13 +10652,13 @@
         <v>1</v>
       </c>
       <c r="D150">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E150">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F150">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G150" t="b">
         <v>1</v>
@@ -10702,13 +10702,13 @@
         <v>1</v>
       </c>
       <c r="D151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E151">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F151">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G151" t="b">
         <v>1</v>
@@ -10717,7 +10717,7 @@
         <v>10</v>
       </c>
       <c r="J151" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K151">
         <v>0.5454545454545454</v>
@@ -10746,25 +10746,25 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D152">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E152">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H152">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J152" s="1" t="s">
         <v>342</v>
@@ -10796,25 +10796,25 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.09090909090909091</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C153">
         <v>1</v>
       </c>
       <c r="D153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E153">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F153">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J153" s="1" t="s">
         <v>343</v>
@@ -10849,22 +10849,22 @@
         <v>0.08333333333333333</v>
       </c>
       <c r="C154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D154">
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F154">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H154">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="J154" s="1" t="s">
         <v>80</v>
@@ -10917,7 +10917,7 @@
         <v>11</v>
       </c>
       <c r="J155" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K155">
         <v>0.5294117647058824</v>
@@ -10946,25 +10946,25 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.08333333333333333</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C156">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>193</v>
       </c>
       <c r="E156">
-        <v>0.5</v>
+        <v>0.95</v>
       </c>
       <c r="F156">
-        <v>0.5</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G156" t="b">
         <v>1</v>
       </c>
       <c r="H156">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="J156" s="1" t="s">
         <v>344</v>
@@ -10996,25 +10996,25 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="C157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>0.98</v>
       </c>
       <c r="F157">
-        <v>1</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J157" s="1" t="s">
         <v>345</v>
@@ -11046,25 +11046,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.08108108108108109</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C158">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D158">
-        <v>193</v>
+        <v>1</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H158">
-        <v>102</v>
+        <v>12</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>346</v>
@@ -11096,25 +11096,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.08</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C159">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D159">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="E159">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F159">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>347</v>
@@ -11152,16 +11152,16 @@
         <v>1</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F160">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160">
         <v>12</v>
@@ -11202,16 +11202,16 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E161">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H161">
         <v>12</v>
@@ -11252,13 +11252,13 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E162">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="F162">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
@@ -11302,22 +11302,22 @@
         <v>1</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E163">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F163">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163">
         <v>12</v>
       </c>
       <c r="J163" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K163">
         <v>0.5</v>
@@ -11346,25 +11346,25 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C164">
         <v>1</v>
       </c>
       <c r="D164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E164">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="F164">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="G164" t="b">
         <v>1</v>
       </c>
       <c r="H164">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>351</v>
@@ -11396,25 +11396,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.07692307692307693</v>
+        <v>0.07142857142857142</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E165">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F165">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H165">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>352</v>
@@ -11449,22 +11449,22 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E166">
-        <v>0.67</v>
+        <v>0.78</v>
       </c>
       <c r="F166">
-        <v>0.33</v>
+        <v>0.22</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>353</v>
@@ -11502,16 +11502,16 @@
         <v>1</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F167">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167">
         <v>13</v>
@@ -11546,25 +11546,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C168">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D168">
-        <v>9</v>
+        <v>114</v>
       </c>
       <c r="E168">
-        <v>0.78</v>
+        <v>0.99</v>
       </c>
       <c r="F168">
-        <v>0.22</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>82</v>
@@ -11596,25 +11596,25 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.07142857142857142</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E169">
-        <v>0.9399999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="F169">
-        <v>0.06000000000000005</v>
+        <v>0.33</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J169" s="1" t="s">
         <v>355</v>
@@ -11652,13 +11652,13 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>114</v>
+        <v>4</v>
       </c>
       <c r="E170">
-        <v>0.99</v>
+        <v>0.75</v>
       </c>
       <c r="F170">
-        <v>0.01000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
@@ -11696,25 +11696,25 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E171">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H171">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J171" s="1" t="s">
         <v>357</v>
@@ -11746,25 +11746,25 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.06666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E172">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F172">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J172" s="1" t="s">
         <v>358</v>
@@ -11802,16 +11802,16 @@
         <v>1</v>
       </c>
       <c r="D173">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="F173">
-        <v>1</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H173">
         <v>15</v>
@@ -11849,22 +11849,22 @@
         <v>0.0625</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D174">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E174">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H174">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J174" s="1" t="s">
         <v>360</v>
@@ -11896,25 +11896,25 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.0625</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E175">
-        <v>0.91</v>
+        <v>0.75</v>
       </c>
       <c r="F175">
-        <v>0.08999999999999997</v>
+        <v>0.25</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J175" s="1" t="s">
         <v>361</v>
@@ -11946,13 +11946,13 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.0625</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -11964,7 +11964,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>362</v>
@@ -11996,25 +11996,25 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.05882352941176471</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E177">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="F177">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="G177" t="b">
         <v>1</v>
       </c>
       <c r="H177">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>78</v>
@@ -12052,16 +12052,16 @@
         <v>1</v>
       </c>
       <c r="D178">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F178">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178">
         <v>17</v>
@@ -12102,16 +12102,16 @@
         <v>1</v>
       </c>
       <c r="D179">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E179">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H179">
         <v>17</v>
@@ -12146,25 +12146,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E180">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F180">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H180">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>365</v>
@@ -12196,25 +12196,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.05555555555555555</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E181">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F181">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="G181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H181">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>366</v>
@@ -12246,25 +12246,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.05263157894736842</v>
+        <v>0.05128205128205128</v>
       </c>
       <c r="C182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F182">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>367</v>
@@ -12296,25 +12296,25 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.05263157894736842</v>
+        <v>0.05</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E183">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F183">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G183" t="b">
         <v>1</v>
       </c>
       <c r="H183">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>368</v>
@@ -12346,25 +12346,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.05128205128205128</v>
+        <v>0.05</v>
       </c>
       <c r="C184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D184">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="E184">
-        <v>0.96</v>
+        <v>0.67</v>
       </c>
       <c r="F184">
-        <v>0.04000000000000004</v>
+        <v>0.33</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>369</v>
@@ -12396,7 +12396,7 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -12414,7 +12414,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>370</v>
@@ -12446,25 +12446,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.05</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E186">
-        <v>0.67</v>
+        <v>0.89</v>
       </c>
       <c r="F186">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>371</v>
@@ -12502,16 +12502,16 @@
         <v>1</v>
       </c>
       <c r="D187">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E187">
-        <v>0.86</v>
+        <v>0</v>
       </c>
       <c r="F187">
-        <v>0.14</v>
+        <v>1</v>
       </c>
       <c r="G187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>20</v>
@@ -12546,28 +12546,28 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C188">
         <v>1</v>
       </c>
       <c r="D188">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E188">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>0.11</v>
+        <v>1</v>
       </c>
       <c r="G188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K188">
         <v>0.4615384615384616</v>
@@ -12596,25 +12596,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.04761904761904762</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="C189">
         <v>1</v>
       </c>
       <c r="D189">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>0.12</v>
       </c>
       <c r="G189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H189">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>373</v>
@@ -12652,22 +12652,22 @@
         <v>1</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E190">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H190">
         <v>21</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K190">
         <v>0.4545454545454545</v>
@@ -12696,25 +12696,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.04545454545454546</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="E191">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="F191">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>374</v>
@@ -12746,25 +12746,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.04545454545454546</v>
+        <v>0.04</v>
       </c>
       <c r="C192">
         <v>1</v>
       </c>
       <c r="D192">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E192">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>375</v>
@@ -12796,25 +12796,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.04347826086956522</v>
+        <v>0.04</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E193">
-        <v>0.98</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>0.02000000000000002</v>
+        <v>1</v>
       </c>
       <c r="G193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>376</v>
@@ -12852,16 +12852,16 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F194">
-        <v>1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194">
         <v>24</v>
@@ -12896,13 +12896,13 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -12914,7 +12914,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>378</v>
@@ -12946,25 +12946,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.04</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="E196">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="F196">
-        <v>0.05000000000000004</v>
+        <v>1</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H196">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>379</v>
@@ -12996,25 +12996,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0392156862745098</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C197">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F197">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H197">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>380</v>
@@ -13046,25 +13046,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.03846153846153846</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F198">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H198">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>381</v>
@@ -13096,25 +13096,25 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.03703703703703703</v>
+        <v>0.03636363636363636</v>
       </c>
       <c r="C199">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D199">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E199">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>0.06000000000000005</v>
+        <v>1</v>
       </c>
       <c r="G199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H199">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>382</v>
@@ -13146,28 +13146,28 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.03703703703703703</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E200">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="F200">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J200" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K200">
         <v>0.4285714285714285</v>
@@ -13196,25 +13196,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.03636363636363636</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="C201">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D201">
         <v>2</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H201">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>383</v>
@@ -13246,25 +13246,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.03571428571428571</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E202">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="F202">
-        <v>0.14</v>
+        <v>0.33</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>384</v>
@@ -13296,25 +13296,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.03571428571428571</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E203">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F203">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H203">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>98</v>
@@ -13346,28 +13346,28 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.03448275862068965</v>
+        <v>0.03225806451612903</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E204">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J204" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K204">
         <v>0.4285714285714285</v>
@@ -13402,16 +13402,16 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E205">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="G205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205">
         <v>30</v>
@@ -13446,25 +13446,25 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.03225806451612903</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D206">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>0.11</v>
       </c>
       <c r="G206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>386</v>
@@ -13496,25 +13496,25 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.03225806451612903</v>
+        <v>0.02941176470588235</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E207">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F207">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>387</v>
@@ -13546,25 +13546,25 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.03174603174603174</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="C208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D208">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E208">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F208">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G208" t="b">
         <v>1</v>
       </c>
       <c r="H208">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>95</v>
@@ -13596,25 +13596,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.02941176470588235</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E209">
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H209">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>388</v>
@@ -13646,25 +13646,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.02857142857142857</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="F210">
-        <v>0.2</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>389</v>
@@ -13696,25 +13696,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.02777777777777778</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E211">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>0.06999999999999995</v>
+        <v>1</v>
       </c>
       <c r="G211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H211">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>390</v>
@@ -13746,25 +13746,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.02777777777777778</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="C212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D212">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E212">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="F212">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>391</v>
@@ -13796,25 +13796,25 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.02702702702702703</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>0.14</v>
       </c>
       <c r="G213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>392</v>
@@ -13846,25 +13846,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.02631578947368421</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D214">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="E214">
-        <v>0.91</v>
+        <v>0.5</v>
       </c>
       <c r="F214">
-        <v>0.08999999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>393</v>
@@ -13896,25 +13896,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D215">
-        <v>7</v>
+        <v>254</v>
       </c>
       <c r="E215">
-        <v>0.86</v>
+        <v>0.99</v>
       </c>
       <c r="F215">
-        <v>0.14</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>394</v>
@@ -13946,28 +13946,28 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.02380952380952381</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E216">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F216">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J216" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K216">
         <v>0.4</v>
@@ -13996,25 +13996,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.02272727272727273</v>
+        <v>0.02222222222222222</v>
       </c>
       <c r="C217">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="E217">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="F217">
-        <v>0.01000000000000001</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>129</v>
+        <v>44</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>395</v>
@@ -14046,25 +14046,25 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.02272727272727273</v>
+        <v>0.02127659574468085</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E218">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F218">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G218" t="b">
         <v>1</v>
       </c>
       <c r="H218">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>396</v>
@@ -14096,25 +14096,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.02222222222222222</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E219">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="F219">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>397</v>
@@ -14146,25 +14146,25 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.02127659574468085</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E220">
-        <v>0.86</v>
+        <v>0.5</v>
       </c>
       <c r="F220">
-        <v>0.14</v>
+        <v>0.5</v>
       </c>
       <c r="G220" t="b">
         <v>1</v>
       </c>
       <c r="H220">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>398</v>
@@ -14196,25 +14196,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.02083333333333333</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="C221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D221">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="F221">
-        <v>0.11</v>
+        <v>0.5</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>77</v>
@@ -14246,28 +14246,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.02040816326530612</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E222">
-        <v>0.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.5</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K222">
         <v>0.396551724137931</v>
@@ -14296,25 +14296,25 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0202020202020202</v>
+        <v>0.01818181818181818</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="E223">
-        <v>0.5</v>
+        <v>0.96</v>
       </c>
       <c r="F223">
-        <v>0.5</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G223" t="b">
         <v>1</v>
       </c>
       <c r="H223">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="J223" s="1" t="s">
         <v>399</v>
@@ -14352,13 +14352,13 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="F224">
-        <v>0.06000000000000005</v>
+        <v>0.25</v>
       </c>
       <c r="G224" t="b">
         <v>1</v>
@@ -14396,28 +14396,28 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.01818181818181818</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E225">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="F225">
-        <v>0.04000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G225" t="b">
         <v>1</v>
       </c>
       <c r="H225">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K225">
         <v>0.3888888888888889</v>
@@ -14446,25 +14446,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.01818181818181818</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E226">
-        <v>0.75</v>
+        <v>0.83</v>
       </c>
       <c r="F226">
-        <v>0.25</v>
+        <v>0.17</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>401</v>
@@ -14496,7 +14496,7 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.01785714285714286</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="C227">
         <v>1</v>
@@ -14514,10 +14514,10 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="J227" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K227">
         <v>0.3846153846153846</v>
@@ -14546,25 +14546,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.01724137931034483</v>
+        <v>0.01639344262295082</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E228">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="F228">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>402</v>
@@ -14596,25 +14596,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.01666666666666667</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E229">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="F229">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="G229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H229">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>403</v>
@@ -14646,25 +14646,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.01639344262295082</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E230">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F230">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="G230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H230">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>404</v>
@@ -14696,28 +14696,28 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.01515151515151515</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H231">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J231" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K231">
         <v>0.375</v>
@@ -14746,25 +14746,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.01298701298701299</v>
+        <v>0.009803921568627451</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="E232">
-        <v>0</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H232">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>405</v>
@@ -14796,25 +14796,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.01030927835051546</v>
+        <v>0.009523809523809525</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E233">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F233">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>406</v>
@@ -14846,25 +14846,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.009803921568627451</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E234">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F234">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>407</v>
@@ -14896,28 +14896,28 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.009523809523809525</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="E235">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="F235">
-        <v>0.03000000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="J235" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K235">
         <v>0.375</v>
@@ -14949,22 +14949,22 @@
         <v>0.009259259259259259</v>
       </c>
       <c r="C236">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D236">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="E236">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F236">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>107</v>
+        <v>321</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>101</v>
@@ -14996,28 +14996,28 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.009259259259259259</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="E237">
-        <v>0.5</v>
+        <v>0.98</v>
       </c>
       <c r="F237">
-        <v>0.5</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J237" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K237">
         <v>0.3658536585365854</v>
@@ -15046,25 +15046,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.009259259259259259</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C238">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D238">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="E238">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F238">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>321</v>
+        <v>119</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>408</v>
@@ -15096,25 +15096,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.008928571428571428</v>
+        <v>0.007692307692307693</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="E239">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F239">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>409</v>
@@ -15146,25 +15146,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.008333333333333333</v>
+        <v>0.007518796992481203</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E240">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F240">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>410</v>
@@ -15196,25 +15196,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.007692307692307693</v>
+        <v>0.007407407407407408</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="E241">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="F241">
-        <v>0.03000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>411</v>
@@ -15246,28 +15246,28 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.007518796992481203</v>
+        <v>0.007246376811594203</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="E242">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="F242">
-        <v>0.03000000000000003</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G242" t="b">
         <v>1</v>
       </c>
       <c r="H242">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="J242" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K242">
         <v>0.3571428571428572</v>
@@ -15296,25 +15296,25 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.007407407407407408</v>
+        <v>0.006711409395973154</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E243">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="G243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H243">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>412</v>
@@ -15346,25 +15346,25 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.007246376811594203</v>
+        <v>0.005847953216374269</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E244">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>0.09999999999999998</v>
+        <v>1</v>
       </c>
       <c r="G244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H244">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>413</v>
@@ -15396,25 +15396,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.006711409395973154</v>
+        <v>0.005235602094240838</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H245">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>414</v>
@@ -15446,25 +15446,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.005847953216374269</v>
+        <v>0.004385964912280702</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E246">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H246">
-        <v>170</v>
+        <v>227</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>415</v>
@@ -15496,25 +15496,25 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.005235602094240838</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E247">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F247">
-        <v>0.04000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G247" t="b">
         <v>1</v>
       </c>
       <c r="H247">
-        <v>190</v>
+        <v>332</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>416</v>
@@ -15546,25 +15546,25 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.004385964912280702</v>
+        <v>0.002747252747252747</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E248">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F248">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G248" t="b">
         <v>1</v>
       </c>
       <c r="H248">
-        <v>227</v>
+        <v>363</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>417</v>
@@ -15596,25 +15596,25 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.003003003003003003</v>
+        <v>0.002076843198338525</v>
       </c>
       <c r="C249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D249">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E249">
-        <v>0.9399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="F249">
-        <v>0.06000000000000005</v>
+        <v>0.29</v>
       </c>
       <c r="G249" t="b">
         <v>1</v>
       </c>
       <c r="H249">
-        <v>332</v>
+        <v>961</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>418</v>
@@ -15646,25 +15646,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.002747252747252747</v>
+        <v>0.001751313485113835</v>
       </c>
       <c r="C250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D250">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E250">
-        <v>0.98</v>
+        <v>0.9</v>
       </c>
       <c r="F250">
-        <v>0.02000000000000002</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>363</v>
+        <v>1140</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>419</v>
@@ -15696,25 +15696,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.002076843198338525</v>
+        <v>0.001577287066246057</v>
       </c>
       <c r="C251">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D251">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E251">
-        <v>0.71</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F251">
-        <v>0.29</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>961</v>
+        <v>633</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>420</v>
@@ -15746,28 +15746,28 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.001751313485113835</v>
+        <v>0.001172332942555686</v>
       </c>
       <c r="C252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D252">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="E252">
-        <v>0.9</v>
+        <v>0.98</v>
       </c>
       <c r="F252">
-        <v>0.09999999999999998</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>1140</v>
+        <v>852</v>
       </c>
       <c r="J252" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K252">
         <v>0.3333333333333333</v>
@@ -15796,25 +15796,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.001577287066246057</v>
+        <v>0.00117096018735363</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E253">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="F253">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>633</v>
+        <v>853</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>421</v>
@@ -15846,25 +15846,25 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.001172332942555686</v>
+        <v>0.001</v>
       </c>
       <c r="C254">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D254">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="E254">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F254">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G254" t="b">
         <v>1</v>
       </c>
       <c r="H254">
-        <v>852</v>
+        <v>2997</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>97</v>
@@ -15896,25 +15896,25 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.00117096018735363</v>
+        <v>0.0009596928982725527</v>
       </c>
       <c r="C255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D255">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="E255">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F255">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G255" t="b">
         <v>1</v>
       </c>
       <c r="H255">
-        <v>853</v>
+        <v>2082</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>422</v>
@@ -15946,28 +15946,28 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.001</v>
+        <v>0.000946073793755913</v>
       </c>
       <c r="C256">
         <v>3</v>
       </c>
       <c r="D256">
-        <v>110</v>
+        <v>33</v>
       </c>
       <c r="E256">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F256">
-        <v>0.03000000000000003</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G256" t="b">
         <v>1</v>
       </c>
       <c r="H256">
-        <v>2997</v>
+        <v>3168</v>
       </c>
       <c r="J256" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K256">
         <v>0.3333333333333333</v>
@@ -15991,31 +15991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="257" spans="1:17">
-      <c r="A257" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B257">
-        <v>0.0009596928982725527</v>
-      </c>
-      <c r="C257">
-        <v>2</v>
-      </c>
-      <c r="D257">
-        <v>61</v>
-      </c>
-      <c r="E257">
-        <v>0.97</v>
-      </c>
-      <c r="F257">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="G257" t="b">
-        <v>1</v>
-      </c>
-      <c r="H257">
-        <v>2082</v>
-      </c>
+    <row r="257" spans="10:17">
       <c r="J257" s="1" t="s">
         <v>423</v>
       </c>
@@ -16041,31 +16017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:17">
-      <c r="A258" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B258">
-        <v>0.000946073793755913</v>
-      </c>
-      <c r="C258">
-        <v>3</v>
-      </c>
-      <c r="D258">
-        <v>33</v>
-      </c>
-      <c r="E258">
-        <v>0.91</v>
-      </c>
-      <c r="F258">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="G258" t="b">
-        <v>1</v>
-      </c>
-      <c r="H258">
-        <v>3168</v>
-      </c>
+    <row r="258" spans="10:17">
       <c r="J258" s="1" t="s">
         <v>424</v>
       </c>
@@ -16091,7 +16043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="10:17">
       <c r="J259" s="1" t="s">
         <v>425</v>
       </c>
@@ -16117,7 +16069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="10:17">
       <c r="J260" s="1" t="s">
         <v>426</v>
       </c>
@@ -16143,7 +16095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="10:17">
       <c r="J261" s="1" t="s">
         <v>427</v>
       </c>
@@ -16169,7 +16121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="10:17">
       <c r="J262" s="1" t="s">
         <v>428</v>
       </c>
@@ -16195,7 +16147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="10:17">
       <c r="J263" s="1" t="s">
         <v>429</v>
       </c>
@@ -16221,7 +16173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="10:17">
       <c r="J264" s="1" t="s">
         <v>430</v>
       </c>
@@ -16247,7 +16199,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="10:17">
       <c r="J265" s="1" t="s">
         <v>431</v>
       </c>
@@ -16273,7 +16225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="10:17">
       <c r="J266" s="1" t="s">
         <v>432</v>
       </c>
@@ -16299,7 +16251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="10:17">
       <c r="J267" s="1" t="s">
         <v>93</v>
       </c>
@@ -16325,7 +16277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="10:17">
       <c r="J268" s="1" t="s">
         <v>433</v>
       </c>
@@ -16351,7 +16303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="10:17">
       <c r="J269" s="1" t="s">
         <v>434</v>
       </c>
@@ -16377,7 +16329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="10:17">
       <c r="J270" s="1" t="s">
         <v>435</v>
       </c>
@@ -16403,7 +16355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="10:17">
       <c r="J271" s="1" t="s">
         <v>436</v>
       </c>
@@ -16429,7 +16381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="10:17">
       <c r="J272" s="1" t="s">
         <v>437</v>
       </c>
@@ -16483,7 +16435,7 @@
     </row>
     <row r="274" spans="10:17">
       <c r="J274" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K274">
         <v>0.3076923076923077</v>
@@ -16665,7 +16617,7 @@
     </row>
     <row r="281" spans="10:17">
       <c r="J281" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K281">
         <v>0.2987012987012987</v>
@@ -16691,7 +16643,7 @@
     </row>
     <row r="282" spans="10:17">
       <c r="J282" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K282">
         <v>0.2974683544303797</v>
@@ -16769,7 +16721,7 @@
     </row>
     <row r="285" spans="10:17">
       <c r="J285" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K285">
         <v>0.2857142857142857</v>
@@ -16847,7 +16799,7 @@
     </row>
     <row r="288" spans="10:17">
       <c r="J288" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K288">
         <v>0.2857142857142857</v>
@@ -16977,7 +16929,7 @@
     </row>
     <row r="293" spans="10:17">
       <c r="J293" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K293">
         <v>0.2857142857142857</v>
@@ -17003,7 +16955,7 @@
     </row>
     <row r="294" spans="10:17">
       <c r="J294" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K294">
         <v>0.2857142857142857</v>
@@ -17029,7 +16981,7 @@
     </row>
     <row r="295" spans="10:17">
       <c r="J295" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K295">
         <v>0.2857142857142857</v>
@@ -17367,7 +17319,7 @@
     </row>
     <row r="308" spans="10:17">
       <c r="J308" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K308">
         <v>0.2727272727272727</v>
@@ -17471,7 +17423,7 @@
     </row>
     <row r="312" spans="10:17">
       <c r="J312" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K312">
         <v>0.2631578947368421</v>
@@ -17549,7 +17501,7 @@
     </row>
     <row r="315" spans="10:17">
       <c r="J315" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K315">
         <v>0.2608695652173913</v>
@@ -17965,7 +17917,7 @@
     </row>
     <row r="331" spans="10:17">
       <c r="J331" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K331">
         <v>0.25</v>
@@ -18017,7 +17969,7 @@
     </row>
     <row r="333" spans="10:17">
       <c r="J333" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K333">
         <v>0.24</v>
@@ -18043,7 +17995,7 @@
     </row>
     <row r="334" spans="10:17">
       <c r="J334" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K334">
         <v>0.2394366197183098</v>
@@ -18199,7 +18151,7 @@
     </row>
     <row r="340" spans="10:17">
       <c r="J340" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K340">
         <v>0.2307692307692308</v>
@@ -18303,7 +18255,7 @@
     </row>
     <row r="344" spans="10:17">
       <c r="J344" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K344">
         <v>0.2265060240963855</v>
@@ -18589,7 +18541,7 @@
     </row>
     <row r="355" spans="10:17">
       <c r="J355" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K355">
         <v>0.2222222222222222</v>
@@ -18641,7 +18593,7 @@
     </row>
     <row r="357" spans="10:17">
       <c r="J357" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K357">
         <v>0.2210526315789474</v>
@@ -18693,7 +18645,7 @@
     </row>
     <row r="359" spans="10:17">
       <c r="J359" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K359">
         <v>0.2121212121212121</v>
@@ -18719,7 +18671,7 @@
     </row>
     <row r="360" spans="10:17">
       <c r="J360" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K360">
         <v>0.2121212121212121</v>
@@ -18823,7 +18775,7 @@
     </row>
     <row r="364" spans="10:17">
       <c r="J364" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K364">
         <v>0.2077922077922078</v>
@@ -19135,7 +19087,7 @@
     </row>
     <row r="376" spans="10:17">
       <c r="J376" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K376">
         <v>0.1851851851851852</v>
@@ -19213,7 +19165,7 @@
     </row>
     <row r="379" spans="10:17">
       <c r="J379" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K379">
         <v>0.1835443037974684</v>
@@ -19265,7 +19217,7 @@
     </row>
     <row r="381" spans="10:17">
       <c r="J381" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K381">
         <v>0.1818181818181818</v>
@@ -19421,7 +19373,7 @@
     </row>
     <row r="387" spans="10:17">
       <c r="J387" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K387">
         <v>0.1818181818181818</v>
@@ -19525,7 +19477,7 @@
     </row>
     <row r="391" spans="10:17">
       <c r="J391" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K391">
         <v>0.1764705882352941</v>
@@ -19915,7 +19867,7 @@
     </row>
     <row r="406" spans="10:17">
       <c r="J406" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K406">
         <v>0.1666666666666667</v>
@@ -20123,7 +20075,7 @@
     </row>
     <row r="414" spans="10:17">
       <c r="J414" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K414">
         <v>0.1666666666666667</v>
@@ -20201,7 +20153,7 @@
     </row>
     <row r="417" spans="10:17">
       <c r="J417" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K417">
         <v>0.1666666666666667</v>
@@ -20565,7 +20517,7 @@
     </row>
     <row r="431" spans="10:17">
       <c r="J431" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K431">
         <v>0.1578947368421053</v>
@@ -20695,7 +20647,7 @@
     </row>
     <row r="436" spans="10:17">
       <c r="J436" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K436">
         <v>0.1507936507936508</v>
@@ -20773,7 +20725,7 @@
     </row>
     <row r="439" spans="10:17">
       <c r="J439" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K439">
         <v>0.1454545454545454</v>
@@ -20877,7 +20829,7 @@
     </row>
     <row r="443" spans="10:17">
       <c r="J443" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K443">
         <v>0.1440677966101695</v>
@@ -21085,7 +21037,7 @@
     </row>
     <row r="451" spans="10:17">
       <c r="J451" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K451">
         <v>0.1428571428571428</v>
@@ -21267,7 +21219,7 @@
     </row>
     <row r="458" spans="10:17">
       <c r="J458" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K458">
         <v>0.1428571428571428</v>
@@ -21449,7 +21401,7 @@
     </row>
     <row r="465" spans="10:17">
       <c r="J465" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K465">
         <v>0.1428571428571428</v>
@@ -21839,7 +21791,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K480">
         <v>0.1363636363636364</v>
@@ -21865,7 +21817,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K481">
         <v>0.1351351351351351</v>
@@ -21917,7 +21869,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K483">
         <v>0.1333333333333333</v>
@@ -21943,7 +21895,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K484">
         <v>0.1276595744680851</v>
@@ -21969,7 +21921,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K485">
         <v>0.1253012048192771</v>
@@ -22229,7 +22181,7 @@
     </row>
     <row r="495" spans="10:17">
       <c r="J495" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K495">
         <v>0.125</v>
@@ -22359,7 +22311,7 @@
     </row>
     <row r="500" spans="10:17">
       <c r="J500" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K500">
         <v>0.125</v>
@@ -22619,7 +22571,7 @@
     </row>
     <row r="510" spans="10:17">
       <c r="J510" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K510">
         <v>0.1153846153846154</v>
@@ -22645,7 +22597,7 @@
     </row>
     <row r="511" spans="10:17">
       <c r="J511" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K511">
         <v>0.1129032258064516</v>
@@ -22671,7 +22623,7 @@
     </row>
     <row r="512" spans="10:17">
       <c r="J512" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K512">
         <v>0.1121495327102804</v>
@@ -23243,7 +23195,7 @@
     </row>
     <row r="534" spans="10:17">
       <c r="J534" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K534">
         <v>0.1060606060606061</v>
@@ -23269,7 +23221,7 @@
     </row>
     <row r="535" spans="10:17">
       <c r="J535" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K535">
         <v>0.1052631578947368</v>
@@ -23321,7 +23273,7 @@
     </row>
     <row r="537" spans="10:17">
       <c r="J537" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K537">
         <v>0.1052631578947368</v>
@@ -23373,7 +23325,7 @@
     </row>
     <row r="539" spans="10:17">
       <c r="J539" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K539">
         <v>0.1052631578947368</v>
@@ -23789,7 +23741,7 @@
     </row>
     <row r="555" spans="10:17">
       <c r="J555" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K555">
         <v>0.09523809523809523</v>
@@ -23893,7 +23845,7 @@
     </row>
     <row r="559" spans="10:17">
       <c r="J559" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K559">
         <v>0.09090909090909091</v>
@@ -23945,7 +23897,7 @@
     </row>
     <row r="561" spans="10:17">
       <c r="J561" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K561">
         <v>0.09090909090909091</v>
@@ -24309,7 +24261,7 @@
     </row>
     <row r="575" spans="10:17">
       <c r="J575" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K575">
         <v>0.09090909090909091</v>
@@ -24361,7 +24313,7 @@
     </row>
     <row r="577" spans="10:17">
       <c r="J577" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K577">
         <v>0.0851063829787234</v>
@@ -24595,7 +24547,7 @@
     </row>
     <row r="586" spans="10:17">
       <c r="J586" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K586">
         <v>0.08333333333333333</v>
@@ -24673,7 +24625,7 @@
     </row>
     <row r="589" spans="10:17">
       <c r="J589" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K589">
         <v>0.08064516129032258</v>
@@ -24803,7 +24755,7 @@
     </row>
     <row r="594" spans="10:17">
       <c r="J594" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K594">
         <v>0.07692307692307693</v>
@@ -25063,7 +25015,7 @@
     </row>
     <row r="604" spans="10:17">
       <c r="J604" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K604">
         <v>0.07142857142857142</v>
@@ -25739,7 +25691,7 @@
     </row>
     <row r="630" spans="10:17">
       <c r="J630" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K630">
         <v>0.06666666666666667</v>
@@ -26129,7 +26081,7 @@
     </row>
     <row r="645" spans="10:17">
       <c r="J645" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K645">
         <v>0.0625</v>
@@ -26311,7 +26263,7 @@
     </row>
     <row r="652" spans="10:17">
       <c r="J652" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K652">
         <v>0.06164383561643835</v>
@@ -26831,7 +26783,7 @@
     </row>
     <row r="672" spans="10:17">
       <c r="J672" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K672">
         <v>0.05333333333333334</v>
@@ -26883,7 +26835,7 @@
     </row>
     <row r="674" spans="10:17">
       <c r="J674" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K674">
         <v>0.05263157894736842</v>
@@ -27533,7 +27485,7 @@
     </row>
     <row r="699" spans="10:17">
       <c r="J699" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K699">
         <v>0.04597701149425287</v>
@@ -27663,7 +27615,7 @@
     </row>
     <row r="704" spans="10:17">
       <c r="J704" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K704">
         <v>0.04479283314669653</v>
@@ -28469,7 +28421,7 @@
     </row>
     <row r="735" spans="10:17">
       <c r="J735" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K735">
         <v>0.03813559322033899</v>
@@ -28573,7 +28525,7 @@
     </row>
     <row r="739" spans="10:17">
       <c r="J739" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K739">
         <v>0.03703703703703703</v>
@@ -28755,7 +28707,7 @@
     </row>
     <row r="746" spans="10:17">
       <c r="J746" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K746">
         <v>0.03571428571428571</v>
@@ -28989,7 +28941,7 @@
     </row>
     <row r="755" spans="10:17">
       <c r="J755" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K755">
         <v>0.03447164948453608</v>
@@ -29197,7 +29149,7 @@
     </row>
     <row r="763" spans="10:17">
       <c r="J763" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K763">
         <v>0.03225806451612903</v>
@@ -29639,7 +29591,7 @@
     </row>
     <row r="780" spans="10:17">
       <c r="J780" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K780">
         <v>0.02755721625408688</v>
@@ -30055,7 +30007,7 @@
     </row>
     <row r="796" spans="10:17">
       <c r="J796" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K796">
         <v>0.02465331278890601</v>
@@ -30159,7 +30111,7 @@
     </row>
     <row r="800" spans="10:17">
       <c r="J800" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K800">
         <v>0.02380952380952381</v>
@@ -30497,7 +30449,7 @@
     </row>
     <row r="813" spans="10:17">
       <c r="J813" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K813">
         <v>0.0218978102189781</v>
@@ -30601,7 +30553,7 @@
     </row>
     <row r="817" spans="10:17">
       <c r="J817" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K817">
         <v>0.02040816326530612</v>
@@ -30627,7 +30579,7 @@
     </row>
     <row r="818" spans="10:17">
       <c r="J818" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K818">
         <v>0.0202020202020202</v>
@@ -30939,7 +30891,7 @@
     </row>
     <row r="830" spans="10:17">
       <c r="J830" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K830">
         <v>0.01639344262295082</v>
@@ -31641,7 +31593,7 @@
     </row>
     <row r="857" spans="10:17">
       <c r="J857" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K857">
         <v>0.009380863039399626</v>
@@ -31667,7 +31619,7 @@
     </row>
     <row r="858" spans="10:17">
       <c r="J858" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K858">
         <v>0.009259259259259259</v>
@@ -31849,7 +31801,7 @@
     </row>
     <row r="865" spans="10:17">
       <c r="J865" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K865">
         <v>0.005175983436853002</v>
